--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F493A-332A-4566-8D0B-D30C5ACDAC86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE36E255-B898-40FF-8FD6-5AB78E1085ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="5530" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,166 @@
   </si>
   <si>
     <t>Name Sex SibSp Parch Embarked Family_svm_clf_0.815.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket_rf_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket_dt_clf_0.805.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare_rf_clf_0.816.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare Family_rf_clf_0.807.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare Family_gb_clf_0.825.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Family_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin_s_gb_clf_0.801.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare_dt_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Family_svm_clf_0.804.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Cabin_dt_clf_0.802.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare_gb_clf_0.8.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Family_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Family_rf_clf_0.806.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare Cabin_s_rf_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Fare Cabin_s_gb_clf_0.804.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Ticket Cabin_gb_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Embarked_dt_clf_0.805.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Embarked Family_rf_clf_0.8.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Embarked Family_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Fare Embarked Cabin_s_dt_clf_0.804.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name SibSp Parch Cabin_rf_clf_0.825.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name SibSp Parch Cabin_dt_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name SibSp Family_dt_clf_0.816.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name SibSp Embarked_dt_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare_gb_clf_0.822.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Family_rf_clf_0.82.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Family_gb_clf_0.831.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin_s Family_rf_clf_0.807.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin_s Family_gb_clf_0.827.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Family_rf_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Family_gb_clf_0.824.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Embarked Family_svm_clf_0.806.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Cabin_s Family_svm_clf_0.807.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Cabin Family_svm_clf_0.809.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Cabin Family_dt_clf_0.805.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex Age Ticket_gb_clf_0.801.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Name SibSp_rf_clf_0.813.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Name SibSp_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Name SibSp_dt_clf_0.811.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -925,6 +1085,326 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.79903999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.78468000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.72726999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.75119000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.78947000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.78468000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.78947000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.78468000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.74641000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.72726999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.72248000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.78468000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.70333999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE36E255-B898-40FF-8FD6-5AB78E1085ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D4716-A576-4D2F-84BB-0E3A0545B683}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5530" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="4590" yWindow="430" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,46 @@
   </si>
   <si>
     <t>Pclass Name SibSp_dt_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Cabin_s Family_gb_clf_0.824.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Embarked Cabin_s_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin_gb_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin_s_gb_clf_0.82.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Embarked_gb_clf_0.815.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Ticket Fare_gb_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age SibSp Fare_gb_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age SibSp Ticket_gb_clf_0.816.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age SibSp_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Ticket Cabin_s Family_gb_clf_0.831.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1405,6 +1445,86 @@
         <v>0.76075999999999999</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.74161999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.74641000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.73204999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.75119000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.75119000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D4716-A576-4D2F-84BB-0E3A0545B683}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDAE99-E911-4855-8090-590011DAFD50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="430" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="1820" yWindow="2480" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,46 @@
   </si>
   <si>
     <t>Name Age Ticket Cabin_s Family_gb_clf_0.831.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Sex Ticket Family_gb_clf_0.819.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Sex Ticket Embarked_gb_clf_0.818.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Sex SibSp_log_clf_0.8.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Sex SibSp Parch Cabin_s_svm_clf_0.8.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass Sex SibSp Parch Cabin_svm_clf_0.806.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Ticket Family_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age SibSp Parch_gb_clf_0.815.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age SibSp Parch Ticket_gb_clf_0.825.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Ticket Fare Family_gb_clf_0.829.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Embarked Family_gb_clf_0.823.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1525,6 +1568,86 @@
         <v>0.75119000000000002</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDAE99-E911-4855-8090-590011DAFD50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCD559-9785-43D3-9157-A54BAB8DB355}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2480" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="3760" yWindow="1660" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,18 @@
   </si>
   <si>
     <t>Name Age Parch Embarked Family_gb_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin_s Family_gb_clf_0.838.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Family_rf_clf_0.822.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Family_gb_clf_0.832.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1648,6 +1660,24 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCD559-9785-43D3-9157-A54BAB8DB355}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB882C82-FC9B-49FB-BC21-AD04AE09A840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="1660" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,22 @@
   </si>
   <si>
     <t>Name Age Fare Cabin Family_gb_clf_0.832.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Cabin_s Family_gb_clf_0.842.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Cabin_s Family_rf_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Cabin_s_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Embarked Cabin_s_gb_clf_0.811.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1672,10 +1688,45 @@
       <c r="A92" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="B92" s="1">
+        <v>0.7177</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>100</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.75597999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.7177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.73204999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB882C82-FC9B-49FB-BC21-AD04AE09A840}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD9E85-4383-4FEF-8912-1B579BD4C3F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="1660" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,22 @@
   </si>
   <si>
     <t>Name Age Fare Cabin Embarked Cabin_s_gb_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Cabin_s Family_rf_clf_0.807.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Embarked Cabin_s Family_gb_clf_0.824.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Cabin Embarked Family_gb_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Embarked Cabin_s Family_gb_clf_0.826.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1724,9 +1740,41 @@
         <v>0.73204999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.74641000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.70813000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD9E85-4383-4FEF-8912-1B579BD4C3F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D49EF8-2438-4231-B799-A7C51CB8A40D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="1660" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,26 @@
   </si>
   <si>
     <t>Name Age Embarked Cabin_s Family_gb_clf_0.826.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Embarked Family_gb_clf_0.82.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Embarked Family_gb_clf_0.824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Embarked Family_rf_clf_0.805.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin Embarked_gb_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Cabin_s Family_rf_clf_0.815.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1776,6 +1796,46 @@
       <c r="A101" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="B101" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.72726999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.73684000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D49EF8-2438-4231-B799-A7C51CB8A40D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850009AC-DF55-4646-92E4-6AC04DEF3DF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1660" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,30 @@
   </si>
   <si>
     <t>Name Age Fare Cabin_s Family_rf_clf_0.815.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Embarked Cabin_s Family_rf_clf_0.804.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Embarked Cabin_s_gb_clf_0.824.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Fare Embarked Family_gb_clf_0.826.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Cabin_s Family_gb_clf_0.823.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Cabin_s Family_rf_clf_0.809.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Cabin_s_gb_clf_0.806.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1836,6 +1860,57 @@
       <c r="A106" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="B106" s="1">
+        <v>0.73684000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.74161999999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.74161999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.71291000000000004</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850009AC-DF55-4646-92E4-6AC04DEF3DF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A772BE-3D69-46D6-B3EB-D7AE4F64288C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="11870" yWindow="1010" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,38 @@
   </si>
   <si>
     <t>Name Age Parch Cabin Cabin_s_gb_clf_0.806.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Cabin_s_gb_clf_0.806.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Cabin_s_gb_clf_0.826.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Cabin_s_rf_clf_0.804.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Embarked Cabin_s_gb_clf_0.819.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Embarked Family_gb_clf_0.825.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Embarked_gb_clf_0.81.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Family_gb_clf_0.828.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare Family_rf_clf_0.808.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1912,6 +1944,70 @@
         <v>0.71291000000000004</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.73684000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.74641000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.73204999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.78468000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.77990000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.74641000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New_Titanic3_results.xlsx
+++ b/New_Titanic3_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A772BE-3D69-46D6-B3EB-D7AE4F64288C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407EADFB-B6E2-4662-9919-D50849122BFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11870" yWindow="1010" windowWidth="14400" windowHeight="7360" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1010BBA7-B7B4-4E8B-B633-71B837FB75F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,46 @@
   </si>
   <si>
     <t>Name Age Parch Fare Family_rf_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Fare_rf_clf_0.803.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Ticket Cabin Cabin_s_gb_clf_0.814.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Ticket Cabin Embarked_gb_clf_0.811.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Embarked Cabin_s_gb_clf_0.805.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Embarked Family_gb_clf_0.819.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Embarked_gb_clf_0.801.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Family_gb_clf_0.817.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin Family_rf_clf_0.808.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Age Parch Cabin_s Family_gb_clf_0.828.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +618,14 @@
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -658,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +742,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E980E90-4F7B-4848-BC2F-0CE7CC8A32AE}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2008,6 +2059,86 @@
         <v>0.74641000000000002</v>
       </c>
     </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.75597999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.72726999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.75119000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.73684000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.75597999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.71291000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
